--- a/Chapters/05_Artificial_Neural_Networks_for_EHL_Film_Thickness_Predictions/ImplicitCPUanalyticalVsANN.xlsx
+++ b/Chapters/05_Artificial_Neural_Networks_for_EHL_Film_Thickness_Predictions/ImplicitCPUanalyticalVsANN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\PhDThesis\Chapters\05_Artificial_Neural_Networks_for_EHL_Film_Thickness_Predictions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E41646-0F7D-44DD-9AE4-D69503F1EDD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91474E3-7BDC-404D-BF8C-B7B2CC082097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{834DE5FB-3A21-4CF3-AABD-30A787CF6D4B}"/>
+    <workbookView xWindow="31185" yWindow="975" windowWidth="21600" windowHeight="11385" xr2:uid="{834DE5FB-3A21-4CF3-AABD-30A787CF6D4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>ANN</t>
   </si>
@@ -57,23 +57,72 @@
   </si>
   <si>
     <t>Iterations per time step</t>
+  </si>
+  <si>
+    <t>5 000</t>
+  </si>
+  <si>
+    <t>10 000</t>
+  </si>
+  <si>
+    <t>15 000</t>
+  </si>
+  <si>
+    <t>20 000</t>
+  </si>
+  <si>
+    <t>Percentage difference</t>
+  </si>
+  <si>
+    <t>Analytical film thickness [µm]</t>
+  </si>
+  <si>
+    <r>
+      <t>ANN film thickness [</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>µm]</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0000E+00"/>
-    <numFmt numFmtId="171" formatCode="0.0000"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="171" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -137,8 +186,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -146,24 +213,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -500,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F17404F-9B32-45C5-B0E5-59F7102357F8}">
-  <dimension ref="E5:J10"/>
+  <dimension ref="E5:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:J10"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,123 +572,191 @@
     <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E5" s="1" t="s">
+    <row r="5" spans="5:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="E5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="7" t="s">
+      <c r="G5" s="4"/>
+      <c r="H5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>6</v>
       </c>
+      <c r="M5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="6" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E6" s="2"/>
-      <c r="F6" s="4" t="s">
+    <row r="6" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E6" s="8"/>
+      <c r="F6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
       <c r="J6" s="9"/>
+      <c r="M6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="10">
+        <v>3.26</v>
+      </c>
+      <c r="O6" s="10">
+        <v>3.9980000000000002</v>
+      </c>
+      <c r="P6" s="10">
+        <f>SUM((O6-N6)/(0.5*(O6+N6)))*100</f>
+        <v>20.336180766051264</v>
+      </c>
     </row>
-    <row r="7" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E7" s="4">
+    <row r="7" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E7" s="1">
         <v>5000</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="1">
         <v>0.38368000000000002</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="2">
         <v>6.28161E-3</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="2">
         <f>SUM(G7/F7)</f>
         <v>1.6372002710592158E-2</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="3">
         <f>SUM(1/H7)</f>
         <v>61.079882386840325</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="1">
         <v>2.7210000000000001</v>
       </c>
+      <c r="M7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="10">
+        <v>2.7890000000000001</v>
+      </c>
+      <c r="O7" s="10">
+        <v>3.34</v>
+      </c>
+      <c r="P7" s="10">
+        <f t="shared" ref="P7:P9" si="0">SUM((O7-N7)/(0.5*(O7+N7)))*100</f>
+        <v>17.980094632077005</v>
+      </c>
     </row>
-    <row r="8" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E8" s="4">
+    <row r="8" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E8" s="1">
         <v>10000</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="1">
         <v>0.39943000000000001</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="2">
         <v>6.2374800000000001E-3</v>
       </c>
-      <c r="H8" s="5">
-        <f t="shared" ref="H8:H10" si="0">SUM(G8/F8)</f>
+      <c r="H8" s="2">
+        <f t="shared" ref="H8:H10" si="1">SUM(G8/F8)</f>
         <v>1.5615952732644017E-2</v>
       </c>
-      <c r="I8" s="6">
-        <f t="shared" ref="I8:I10" si="1">SUM(1/H8)</f>
+      <c r="I8" s="3">
+        <f t="shared" ref="I8:I10" si="2">SUM(1/H8)</f>
         <v>64.037079076806663</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="1">
         <v>2.9689999999999999</v>
       </c>
+      <c r="M8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" s="10">
+        <v>2.214</v>
+      </c>
+      <c r="O8" s="10">
+        <v>2.5910000000000002</v>
+      </c>
+      <c r="P8" s="10">
+        <f t="shared" si="0"/>
+        <v>15.691987513007295</v>
+      </c>
     </row>
-    <row r="9" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E9" s="4">
+    <row r="9" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E9" s="1">
         <v>15000</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="1">
         <v>0.36782999999999999</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="2">
         <v>7.5816199999999999E-3</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="2">
+        <f t="shared" si="1"/>
+        <v>2.0611749993203383E-2</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="2"/>
+        <v>48.51601636589541</v>
+      </c>
+      <c r="J9" s="1">
+        <v>3.5630000000000002</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" s="10">
+        <v>1.466</v>
+      </c>
+      <c r="O9" s="10">
+        <v>1.673</v>
+      </c>
+      <c r="P9" s="10">
         <f t="shared" si="0"/>
-        <v>2.0611749993203383E-2</v>
-      </c>
-      <c r="I9" s="6">
+        <v>13.188913666772862</v>
+      </c>
+    </row>
+    <row r="10" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E10" s="1">
+        <v>20000</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.35915999999999998</v>
+      </c>
+      <c r="G10" s="2">
+        <v>7.3964599999999997E-3</v>
+      </c>
+      <c r="H10" s="2">
         <f t="shared" si="1"/>
-        <v>48.51601636589541</v>
-      </c>
-      <c r="J9" s="4">
-        <v>3.5630000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E10" s="4">
-        <v>20000</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0.35915999999999998</v>
-      </c>
-      <c r="G10" s="5">
-        <v>7.3964599999999997E-3</v>
-      </c>
-      <c r="H10" s="5">
-        <f t="shared" si="0"/>
         <v>2.059377436240116E-2</v>
       </c>
-      <c r="I10" s="6">
-        <f t="shared" si="1"/>
+      <c r="I10" s="3">
+        <f t="shared" si="2"/>
         <v>48.558364406756745</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="1">
         <v>3.0779999999999998</v>
       </c>
     </row>
